--- a/Code/Results/Cases/Case_6_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_54/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.76439218875499</v>
+        <v>12.50278886278642</v>
       </c>
       <c r="C2">
-        <v>11.56606523700356</v>
+        <v>6.992749135954194</v>
       </c>
       <c r="D2">
-        <v>4.443153649036805</v>
+        <v>4.88588441910048</v>
       </c>
       <c r="E2">
-        <v>12.57084247089807</v>
+        <v>14.61492675661022</v>
       </c>
       <c r="F2">
-        <v>36.44334753215588</v>
+        <v>20.35029906458122</v>
       </c>
       <c r="G2">
-        <v>2.072429535303632</v>
+        <v>2.094381375612493</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.54929301075786</v>
+        <v>11.21408354489604</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.73726079388435</v>
+        <v>14.45712859268065</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>28.72772084070817</v>
+        <v>16.53498970312587</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.51276363379595</v>
+        <v>11.71597864889037</v>
       </c>
       <c r="C3">
-        <v>10.81924598646316</v>
+        <v>6.763122632313786</v>
       </c>
       <c r="D3">
-        <v>4.484658286535183</v>
+        <v>4.776141152431637</v>
       </c>
       <c r="E3">
-        <v>11.83145215176721</v>
+        <v>13.75346111325159</v>
       </c>
       <c r="F3">
-        <v>34.65623645440542</v>
+        <v>19.97101323461252</v>
       </c>
       <c r="G3">
-        <v>2.082679044696739</v>
+        <v>2.099616025063263</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.51108243358821</v>
+        <v>10.6335157861818</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.58569492664982</v>
+        <v>13.53502181301043</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>27.48402154298771</v>
+        <v>16.46495405769027</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.70448071438218</v>
+        <v>11.20586370300808</v>
       </c>
       <c r="C4">
-        <v>10.33870470909307</v>
+        <v>6.617895634842602</v>
       </c>
       <c r="D4">
-        <v>4.511123861473595</v>
+        <v>4.706951752720348</v>
       </c>
       <c r="E4">
-        <v>11.36825418230616</v>
+        <v>13.21005346831362</v>
       </c>
       <c r="F4">
-        <v>33.54792551232361</v>
+        <v>19.75375879045925</v>
       </c>
       <c r="G4">
-        <v>2.089106155282604</v>
+        <v>2.10292589765265</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.84170823114288</v>
+        <v>10.26023048483862</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.84440826010178</v>
+        <v>12.93927702092429</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.71955540333922</v>
+        <v>16.4364555501889</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.36494127236245</v>
+        <v>10.99119226551972</v>
       </c>
       <c r="C5">
-        <v>10.13728690616908</v>
+        <v>6.557698070364252</v>
       </c>
       <c r="D5">
-        <v>4.522141592893029</v>
+        <v>4.678323660054211</v>
       </c>
       <c r="E5">
-        <v>11.17729728244893</v>
+        <v>12.98518534110726</v>
       </c>
       <c r="F5">
-        <v>33.09389818215564</v>
+        <v>19.66915251967913</v>
       </c>
       <c r="G5">
-        <v>2.091761492840507</v>
+        <v>2.104299428070685</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.56080673444344</v>
+        <v>10.10395511308222</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.53358193249057</v>
+        <v>12.68905011721109</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>26.40806717264805</v>
+        <v>16.42835727289124</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.30794314202446</v>
+        <v>10.95513590520004</v>
       </c>
       <c r="C6">
-        <v>10.10350223963853</v>
+        <v>6.547642458753451</v>
       </c>
       <c r="D6">
-        <v>4.523984768966669</v>
+        <v>4.673544498387321</v>
       </c>
       <c r="E6">
-        <v>11.14546049169867</v>
+        <v>12.94764653031701</v>
       </c>
       <c r="F6">
-        <v>33.01837663754615</v>
+        <v>19.65534051237969</v>
       </c>
       <c r="G6">
-        <v>2.092204669751705</v>
+        <v>2.104529013748006</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.51366974117269</v>
+        <v>10.07775692530598</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.48143739271929</v>
+        <v>12.64704944282433</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>26.35635527427979</v>
+        <v>16.42722093530993</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.69994289352189</v>
+        <v>11.20299608093122</v>
       </c>
       <c r="C7">
-        <v>10.33601103870249</v>
+        <v>6.617087836219866</v>
       </c>
       <c r="D7">
-        <v>4.511271524863704</v>
+        <v>4.706567387485294</v>
       </c>
       <c r="E7">
-        <v>11.3656875898534</v>
+        <v>13.20703436717397</v>
       </c>
       <c r="F7">
-        <v>33.54181140115652</v>
+        <v>19.75260187592439</v>
       </c>
       <c r="G7">
-        <v>2.089141816109525</v>
+        <v>2.10294432059734</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.83795292274486</v>
+        <v>10.25813963350146</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.84025193526776</v>
+        <v>12.93593258128597</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.71535404709374</v>
+        <v>16.43633227848497</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.34099028781042</v>
+        <v>12.23709750645893</v>
       </c>
       <c r="C8">
-        <v>11.31308343876103</v>
+        <v>6.914480342472857</v>
       </c>
       <c r="D8">
-        <v>4.457251589619129</v>
+        <v>4.848432300318716</v>
       </c>
       <c r="E8">
-        <v>12.31786648495194</v>
+        <v>14.32100663800364</v>
       </c>
       <c r="F8">
-        <v>35.82964155959434</v>
+        <v>20.21627952656495</v>
       </c>
       <c r="G8">
-        <v>2.075937398408755</v>
+        <v>2.096166803753675</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.19787453004609</v>
+        <v>11.0174298934542</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.34721361733932</v>
+        <v>14.14530622594093</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>28.29919660083148</v>
+        <v>16.50775296839161</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.25097872180558</v>
+        <v>14.05130999361905</v>
       </c>
       <c r="C9">
-        <v>13.05827921818675</v>
+        <v>7.46222659666106</v>
       </c>
       <c r="D9">
-        <v>4.35986883082643</v>
+        <v>5.111430584339357</v>
       </c>
       <c r="E9">
-        <v>14.10948330803594</v>
+        <v>16.40996856315523</v>
       </c>
       <c r="F9">
-        <v>40.21682653665918</v>
+        <v>21.24915306949892</v>
       </c>
       <c r="G9">
-        <v>2.050977354501404</v>
+        <v>2.083605054705328</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.61688772424765</v>
+        <v>12.37078929820752</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.03804910713369</v>
+        <v>16.2838856674696</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>31.39078741808349</v>
+        <v>16.76857994986862</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.21251108246218</v>
+        <v>15.25545151489555</v>
       </c>
       <c r="C10">
-        <v>14.24254750132739</v>
+        <v>7.841014220201528</v>
       </c>
       <c r="D10">
-        <v>4.294842643769091</v>
+        <v>5.294344791929321</v>
       </c>
       <c r="E10">
-        <v>15.49090721820361</v>
+        <v>18.03107015340864</v>
       </c>
       <c r="F10">
-        <v>43.37164759098591</v>
+        <v>22.08229836903425</v>
       </c>
       <c r="G10">
-        <v>2.033008077147823</v>
+        <v>2.074774312353802</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>19.25174814621209</v>
+        <v>13.28054271285098</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.86527180062152</v>
+        <v>17.71608534745324</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.64814224981985</v>
+        <v>17.04129357578111</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.06937881435411</v>
+        <v>15.77574018523281</v>
       </c>
       <c r="C11">
-        <v>14.76174529088583</v>
+        <v>8.007883007897039</v>
       </c>
       <c r="D11">
-        <v>4.267058493658238</v>
+        <v>5.375128249116758</v>
       </c>
       <c r="E11">
-        <v>16.13241058718956</v>
+        <v>18.73955173169396</v>
       </c>
       <c r="F11">
-        <v>44.79260628195006</v>
+        <v>22.47713291533141</v>
       </c>
       <c r="G11">
-        <v>2.024861889609677</v>
+        <v>2.070832541009302</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>19.96683614870993</v>
+        <v>13.67590118322393</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.66695577662981</v>
+        <v>18.33829475846337</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>34.67245269923324</v>
+        <v>17.18446294401418</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.38901979231715</v>
+        <v>15.9688512598599</v>
       </c>
       <c r="C12">
-        <v>14.95571139085837</v>
+        <v>8.070269278846</v>
       </c>
       <c r="D12">
-        <v>4.256836485711272</v>
+        <v>5.405356174242053</v>
       </c>
       <c r="E12">
-        <v>16.37276616063243</v>
+        <v>19.00379377628268</v>
       </c>
       <c r="F12">
-        <v>45.32884849970431</v>
+        <v>22.62889476242681</v>
       </c>
       <c r="G12">
-        <v>2.021776219998725</v>
+        <v>2.06934976348228</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>20.23372337808627</v>
+        <v>13.82295366748163</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.96656857725371</v>
+        <v>18.56977555966565</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>35.06010661306733</v>
+        <v>17.24154150759217</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.3203900058842</v>
+        <v>15.92743457256197</v>
       </c>
       <c r="C13">
-        <v>14.91405195376232</v>
+        <v>8.056869280977672</v>
       </c>
       <c r="D13">
-        <v>4.259023926422946</v>
+        <v>5.398862406534727</v>
       </c>
       <c r="E13">
-        <v>16.32111091175493</v>
+        <v>18.94706233552348</v>
       </c>
       <c r="F13">
-        <v>45.21343671128169</v>
+        <v>22.5961106513436</v>
       </c>
       <c r="G13">
-        <v>2.022440899249933</v>
+        <v>2.069668682422651</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>20.17641422183186</v>
+        <v>13.79140157864106</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.90221321979315</v>
+        <v>18.52010466306925</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>34.9766254375813</v>
+        <v>17.22911947267179</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.09577119488145</v>
+        <v>15.79170567942723</v>
       </c>
       <c r="C14">
-        <v>14.77775492661568</v>
+        <v>8.013031763557038</v>
       </c>
       <c r="D14">
-        <v>4.266211261099307</v>
+        <v>5.377622470611302</v>
       </c>
       <c r="E14">
-        <v>16.1522346120473</v>
+        <v>18.76137140155565</v>
       </c>
       <c r="F14">
-        <v>44.83675864531689</v>
+        <v>22.48957358726578</v>
       </c>
       <c r="G14">
-        <v>2.024608078082667</v>
+        <v>2.070710359597749</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>19.988869976548</v>
+        <v>13.68805259366844</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.6916828887034</v>
+        <v>18.35742124634192</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>34.70434870677846</v>
+        <v>17.18910079831682</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.95756411332445</v>
+        <v>15.70805978806144</v>
       </c>
       <c r="C15">
-        <v>14.69393023028259</v>
+        <v>7.986074878313976</v>
       </c>
       <c r="D15">
-        <v>4.270654039221275</v>
+        <v>5.364564722673619</v>
       </c>
       <c r="E15">
-        <v>16.04846701423694</v>
+        <v>18.64710744257547</v>
       </c>
       <c r="F15">
-        <v>44.60580023372656</v>
+        <v>22.42460830233585</v>
       </c>
       <c r="G15">
-        <v>2.025935264731724</v>
+        <v>2.071349674863102</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.87349251673396</v>
+        <v>13.62440188384649</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.56221919327523</v>
+        <v>18.25723673175561</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>34.5375470741381</v>
+        <v>17.16496446064118</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.15582114561548</v>
+        <v>15.22089980827989</v>
       </c>
       <c r="C16">
-        <v>14.2082372972584</v>
+        <v>7.829997543691753</v>
       </c>
       <c r="D16">
-        <v>4.296697865364643</v>
+        <v>5.289015347646727</v>
       </c>
       <c r="E16">
-        <v>15.44860903111558</v>
+        <v>17.9841963504753</v>
       </c>
       <c r="F16">
-        <v>43.27851310115172</v>
+        <v>22.05681093971611</v>
       </c>
       <c r="G16">
-        <v>2.033540609033995</v>
+        <v>2.075033353243761</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>19.20445726900673</v>
+        <v>13.25433261395925</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.81230867572212</v>
+        <v>17.67483923787697</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>33.5811592714229</v>
+        <v>17.03233163219517</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.65507614753636</v>
+        <v>14.91503176983029</v>
       </c>
       <c r="C17">
-        <v>13.90538830407059</v>
+        <v>7.732838712226663</v>
       </c>
       <c r="D17">
-        <v>4.313161638805798</v>
+        <v>5.242036476100572</v>
       </c>
       <c r="E17">
-        <v>15.07575040435791</v>
+        <v>17.5701845241135</v>
       </c>
       <c r="F17">
-        <v>42.46073309913066</v>
+        <v>21.83521185437653</v>
       </c>
       <c r="G17">
-        <v>2.038210138773618</v>
+        <v>2.077311819830281</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.78683979300346</v>
+        <v>13.02256639374312</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.34488697609214</v>
+        <v>17.31010389083472</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>32.99385862284274</v>
+        <v>16.95594380854105</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.36370757925635</v>
+        <v>14.73651512120638</v>
       </c>
       <c r="C18">
-        <v>13.72934785118122</v>
+        <v>7.676444047351298</v>
       </c>
       <c r="D18">
-        <v>4.322797376692838</v>
+        <v>5.214787964326475</v>
       </c>
       <c r="E18">
-        <v>14.85942207703357</v>
+        <v>17.329321401701</v>
       </c>
       <c r="F18">
-        <v>41.98901336806064</v>
+        <v>21.70924587348374</v>
       </c>
       <c r="G18">
-        <v>2.040898907114488</v>
+        <v>2.078629489495878</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>18.54392920885743</v>
+        <v>12.88751946728003</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.07324030811041</v>
+        <v>17.09755419993557</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>32.65580304117526</v>
+        <v>16.91379972507094</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.2644717963494</v>
+        <v>14.67562654972974</v>
       </c>
       <c r="C19">
-        <v>13.66942122546438</v>
+        <v>7.657262644335456</v>
       </c>
       <c r="D19">
-        <v>4.326087303857726</v>
+        <v>5.20552347175262</v>
       </c>
       <c r="E19">
-        <v>14.78584848604656</v>
+        <v>17.24729618947866</v>
       </c>
       <c r="F19">
-        <v>41.82906059332422</v>
+        <v>21.66685317229956</v>
       </c>
       <c r="G19">
-        <v>2.041809929169506</v>
+        <v>2.07907688677666</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>18.46121266829813</v>
+        <v>12.84149606357579</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.98077693030723</v>
+        <v>17.02511165921069</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>32.54129651567347</v>
+        <v>16.89983468458089</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.70872656750947</v>
+        <v>14.94785966209918</v>
       </c>
       <c r="C20">
-        <v>13.93781741158127</v>
+        <v>7.743234535993985</v>
       </c>
       <c r="D20">
-        <v>4.311391569625528</v>
+        <v>5.247061111573142</v>
       </c>
       <c r="E20">
-        <v>15.11563359198205</v>
+        <v>17.61453896706736</v>
       </c>
       <c r="F20">
-        <v>42.54792631240695</v>
+        <v>21.8586472737585</v>
       </c>
       <c r="G20">
-        <v>2.037712784753241</v>
+        <v>2.077068539245364</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.83157469673367</v>
+        <v>13.04741854556842</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.39493249934519</v>
+        <v>17.34921607507563</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>33.05640352911951</v>
+        <v>16.96388909072256</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.1618762113523</v>
+        <v>15.83167833763559</v>
       </c>
       <c r="C21">
-        <v>14.81785894807227</v>
+        <v>8.025929845831039</v>
       </c>
       <c r="D21">
-        <v>4.264091677152218</v>
+        <v>5.383871113251568</v>
       </c>
       <c r="E21">
-        <v>16.20190508840668</v>
+        <v>18.81602206683014</v>
       </c>
       <c r="F21">
-        <v>44.94744599342334</v>
+        <v>22.52080535408509</v>
       </c>
       <c r="G21">
-        <v>2.023971591772749</v>
+        <v>2.070404133414554</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>20.04406029280911</v>
+        <v>13.71848089154614</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.75362602240925</v>
+        <v>18.40531690683357</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>34.78432766139804</v>
+        <v>17.20077664152349</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.0835481355058</v>
+        <v>16.38653131517395</v>
       </c>
       <c r="C22">
-        <v>15.37770805098048</v>
+        <v>8.205999178704623</v>
       </c>
       <c r="D22">
-        <v>4.234948126007273</v>
+        <v>5.471162841328474</v>
       </c>
       <c r="E22">
-        <v>16.89702928288764</v>
+        <v>19.57775201580552</v>
       </c>
       <c r="F22">
-        <v>46.50510361762935</v>
+        <v>22.96664831818581</v>
       </c>
       <c r="G22">
-        <v>2.014982973943201</v>
+        <v>2.066105686053872</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>20.81387206989311</v>
+        <v>14.14155262200895</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22.61864228084876</v>
+        <v>19.0714721371237</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>35.9124162625864</v>
+        <v>17.37233737929503</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.59410634985502</v>
+        <v>16.09246486279368</v>
       </c>
       <c r="C23">
-        <v>15.08024535634389</v>
+        <v>8.110327279889299</v>
       </c>
       <c r="D23">
-        <v>4.250324852817639</v>
+        <v>5.424772056154188</v>
       </c>
       <c r="E23">
-        <v>16.52728737718069</v>
+        <v>19.17330992631274</v>
       </c>
       <c r="F23">
-        <v>45.67462195351844</v>
+        <v>22.72750505663375</v>
       </c>
       <c r="G23">
-        <v>2.019782906121624</v>
+        <v>2.068394954963893</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>20.40500011115709</v>
+        <v>13.91716851030501</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.15896637355227</v>
+        <v>18.71810677223674</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>35.31037435209348</v>
+        <v>17.27920329886464</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.68448208254436</v>
+        <v>14.93302648849778</v>
       </c>
       <c r="C24">
-        <v>13.92316223121671</v>
+        <v>7.738536254335836</v>
       </c>
       <c r="D24">
-        <v>4.312191289835178</v>
+        <v>5.24479021948965</v>
       </c>
       <c r="E24">
-        <v>15.09760854867375</v>
+        <v>17.59449518521359</v>
       </c>
       <c r="F24">
-        <v>42.50851115510671</v>
+        <v>21.84804765081164</v>
       </c>
       <c r="G24">
-        <v>2.037937625080636</v>
+        <v>2.077178502190127</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.81135883605773</v>
+        <v>13.03618849856211</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.37231603306361</v>
+        <v>17.33154236588246</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>33.02812825908716</v>
+        <v>16.96029151713</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.49561831438868</v>
+        <v>13.58326267131849</v>
       </c>
       <c r="C25">
-        <v>12.6038674550126</v>
+        <v>7.318072520031254</v>
       </c>
       <c r="D25">
-        <v>4.385178679125781</v>
+        <v>5.042023521035871</v>
       </c>
       <c r="E25">
-        <v>13.63305401253378</v>
+        <v>15.83966846579612</v>
       </c>
       <c r="F25">
-        <v>39.04182490137321</v>
+        <v>20.95658410415419</v>
       </c>
       <c r="G25">
-        <v>2.057649074255886</v>
+        <v>2.086929878409174</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.98817994507554</v>
+        <v>12.01943172912308</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.33730767430552</v>
+        <v>15.73001226272553</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.55677539908588</v>
+        <v>16.68430152085989</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_54/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.50278886278642</v>
+        <v>12.27075368865001</v>
       </c>
       <c r="C2">
-        <v>6.992749135954194</v>
+        <v>8.68188091804703</v>
       </c>
       <c r="D2">
-        <v>4.88588441910048</v>
+        <v>5.336085878380034</v>
       </c>
       <c r="E2">
-        <v>14.61492675661022</v>
+        <v>14.57734973908028</v>
       </c>
       <c r="F2">
-        <v>20.35029906458122</v>
+        <v>16.15699804038882</v>
       </c>
       <c r="G2">
-        <v>2.094381375612493</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>19.25803285472895</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.645695418360035</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.333783018658377</v>
       </c>
       <c r="K2">
-        <v>11.21408354489604</v>
+        <v>12.91837056863539</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.45712859268065</v>
+        <v>11.61589246032692</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.53498970312587</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14.64032671220453</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>13.17241976506665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.71597864889037</v>
+        <v>11.55793671625978</v>
       </c>
       <c r="C3">
-        <v>6.763122632313786</v>
+        <v>8.340767381792446</v>
       </c>
       <c r="D3">
-        <v>4.776141152431637</v>
+        <v>5.114695186826352</v>
       </c>
       <c r="E3">
-        <v>13.75346111325159</v>
+        <v>13.73969671228784</v>
       </c>
       <c r="F3">
-        <v>19.97101323461252</v>
+        <v>15.95740470115312</v>
       </c>
       <c r="G3">
-        <v>2.099616025063263</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>19.09092767158098</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.502210510117205</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.401089317292547</v>
       </c>
       <c r="K3">
-        <v>10.6335157861818</v>
+        <v>13.07905088903457</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.53502181301043</v>
+        <v>11.06824147566748</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.46495405769027</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>13.73267147529839</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>13.225915840619</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.20586370300808</v>
+        <v>11.09541841770921</v>
       </c>
       <c r="C4">
-        <v>6.617895634842602</v>
+        <v>8.126280446737145</v>
       </c>
       <c r="D4">
-        <v>4.706951752720348</v>
+        <v>4.973599826840253</v>
       </c>
       <c r="E4">
-        <v>13.21005346831362</v>
+        <v>13.21160828303772</v>
       </c>
       <c r="F4">
-        <v>19.75375879045925</v>
+        <v>15.84424222589121</v>
       </c>
       <c r="G4">
-        <v>2.10292589765265</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>19.00331500160511</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.534473283917606</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.445770782466051</v>
       </c>
       <c r="K4">
-        <v>10.26023048483862</v>
+        <v>13.18238671719158</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.93927702092429</v>
+        <v>10.71752748715625</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.4364555501889</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>13.14581784344668</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>13.26637533961199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.99119226551972</v>
+        <v>10.89821933645074</v>
       </c>
       <c r="C5">
-        <v>6.557698070364252</v>
+        <v>8.045033024352076</v>
       </c>
       <c r="D5">
-        <v>4.678323660054211</v>
+        <v>4.916394626645984</v>
       </c>
       <c r="E5">
-        <v>12.98518534110726</v>
+        <v>12.99210820404104</v>
       </c>
       <c r="F5">
-        <v>19.66915251967913</v>
+        <v>15.7935252170769</v>
       </c>
       <c r="G5">
-        <v>2.104299428070685</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>18.95912732757635</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.577375515556937</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.462953788124882</v>
       </c>
       <c r="K5">
-        <v>10.10395511308222</v>
+        <v>13.22104222292626</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.68905011721109</v>
+        <v>10.57264759675351</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.42835727289124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>12.90004651356614</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>13.27993908502279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.95513590520004</v>
+        <v>10.86200584484422</v>
       </c>
       <c r="C6">
-        <v>6.547642458753451</v>
+        <v>8.040516948110087</v>
       </c>
       <c r="D6">
-        <v>4.673544498387321</v>
+        <v>4.908716068134482</v>
       </c>
       <c r="E6">
-        <v>12.94764653031701</v>
+        <v>12.95414899353783</v>
       </c>
       <c r="F6">
-        <v>19.65534051237969</v>
+        <v>15.77674208135368</v>
       </c>
       <c r="G6">
-        <v>2.104529013748006</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>18.9371507133462</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.588637486531</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.463598956556092</v>
       </c>
       <c r="K6">
-        <v>10.07775692530598</v>
+        <v>13.22190970379374</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.64704944282433</v>
+        <v>10.55030301359616</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.42722093530993</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12.85976468897627</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>13.27647485955349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.20299608093122</v>
+        <v>11.08450089409213</v>
       </c>
       <c r="C7">
-        <v>6.617087836219866</v>
+        <v>8.149613652227462</v>
       </c>
       <c r="D7">
-        <v>4.706567387485294</v>
+        <v>4.977951291121097</v>
       </c>
       <c r="E7">
-        <v>13.20703436717397</v>
+        <v>13.20511992039002</v>
       </c>
       <c r="F7">
-        <v>19.75260187592439</v>
+        <v>15.82043084026385</v>
       </c>
       <c r="G7">
-        <v>2.10294432059734</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>18.96225016691923</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.545845582580543</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.439838945914072</v>
       </c>
       <c r="K7">
-        <v>10.25813963350146</v>
+        <v>13.16753805114666</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.93593258128597</v>
+        <v>10.72077629437251</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.43633227848497</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>13.14513956198592</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>13.25064755118559</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.23709750645893</v>
+        <v>12.01995498801123</v>
       </c>
       <c r="C8">
-        <v>6.914480342472857</v>
+        <v>8.596439969701894</v>
       </c>
       <c r="D8">
-        <v>4.848432300318716</v>
+        <v>5.267357312363037</v>
       </c>
       <c r="E8">
-        <v>14.32100663800364</v>
+        <v>14.28717272824962</v>
       </c>
       <c r="F8">
-        <v>20.21627952656495</v>
+        <v>16.05618874212934</v>
       </c>
       <c r="G8">
-        <v>2.096166803753675</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>19.14444612352744</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.599827129945678</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.348145982578387</v>
       </c>
       <c r="K8">
-        <v>11.0174298934542</v>
+        <v>12.95240255258311</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.14530622594093</v>
+        <v>11.43669966098457</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.50775296839161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>14.33669719727603</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>13.16825395590714</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.05130999361905</v>
+        <v>13.66874965163932</v>
       </c>
       <c r="C9">
-        <v>7.46222659666106</v>
+        <v>9.389462374176761</v>
       </c>
       <c r="D9">
-        <v>5.111430584339357</v>
+        <v>5.783705995255895</v>
       </c>
       <c r="E9">
-        <v>16.40996856315523</v>
+        <v>16.29727124876675</v>
       </c>
       <c r="F9">
-        <v>21.24915306949892</v>
+        <v>16.6336184671024</v>
       </c>
       <c r="G9">
-        <v>2.083605054705328</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>19.69601799443919</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.941593221948336</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.207045223999371</v>
       </c>
       <c r="K9">
-        <v>12.37078929820752</v>
+        <v>12.59665220937803</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.2838856674696</v>
+        <v>12.71355189262223</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.76857994986862</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>16.43501438618012</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>13.09886021014637</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.25545151489555</v>
+        <v>14.75393731537561</v>
       </c>
       <c r="C10">
-        <v>7.841014220201528</v>
+        <v>9.9555770820695</v>
       </c>
       <c r="D10">
-        <v>5.294344791929321</v>
+        <v>6.137713633142811</v>
       </c>
       <c r="E10">
-        <v>18.03107015340864</v>
+        <v>17.88882509384514</v>
       </c>
       <c r="F10">
-        <v>22.08229836903425</v>
+        <v>17.09250018946371</v>
       </c>
       <c r="G10">
-        <v>2.074774312353802</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>20.16210790028308</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.183279951040973</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.11886358425908</v>
       </c>
       <c r="K10">
-        <v>13.28054271285098</v>
+        <v>12.35332522125674</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.71608534745324</v>
+        <v>13.57802017629678</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.04129357578111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>17.83622065162094</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>13.08376349085098</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.77574018523281</v>
+        <v>15.21085962412869</v>
       </c>
       <c r="C11">
-        <v>8.007883007897039</v>
+        <v>10.24025490766377</v>
       </c>
       <c r="D11">
-        <v>5.375128249116758</v>
+        <v>6.299437926874385</v>
       </c>
       <c r="E11">
-        <v>18.73955173169396</v>
+        <v>18.57892703400593</v>
       </c>
       <c r="F11">
-        <v>22.47713291533141</v>
+        <v>17.27713876595885</v>
       </c>
       <c r="G11">
-        <v>2.070832541009302</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>20.3321794497111</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.295445440062508</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.073138316815355</v>
       </c>
       <c r="K11">
-        <v>13.67590118322393</v>
+        <v>12.22320148149026</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.33829475846337</v>
+        <v>13.96120022224159</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.18446294401418</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>18.44646506089238</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>13.0620138705125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.9688512598599</v>
+        <v>15.3855741588259</v>
       </c>
       <c r="C12">
-        <v>8.070269278846</v>
+        <v>10.32894058466168</v>
       </c>
       <c r="D12">
-        <v>5.405356174242053</v>
+        <v>6.355971005729458</v>
       </c>
       <c r="E12">
-        <v>19.00379377628268</v>
+        <v>18.83817306717572</v>
       </c>
       <c r="F12">
-        <v>22.62889476242681</v>
+        <v>17.36676934197184</v>
       </c>
       <c r="G12">
-        <v>2.06934976348228</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>20.43175261687234</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.335329839000022</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.061820334305663</v>
       </c>
       <c r="K12">
-        <v>13.82295366748163</v>
+        <v>12.18841166041301</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.56977555966565</v>
+        <v>14.10003105653127</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.24154150759217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>18.67154592699985</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>13.06895849337473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.92743457256197</v>
+        <v>15.34919887358923</v>
       </c>
       <c r="C13">
-        <v>8.056869280977672</v>
+        <v>10.30628529428567</v>
       </c>
       <c r="D13">
-        <v>5.398862406534727</v>
+        <v>6.343088902547632</v>
       </c>
       <c r="E13">
-        <v>18.94706233552348</v>
+        <v>18.78294728508179</v>
       </c>
       <c r="F13">
-        <v>22.5961106513436</v>
+        <v>17.35103854893831</v>
       </c>
       <c r="G13">
-        <v>2.069668682422651</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>20.41663831301231</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.326234735053209</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.065299038166593</v>
       </c>
       <c r="K13">
-        <v>13.79140157864106</v>
+        <v>12.19859281873391</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.52010466306925</v>
+        <v>14.06949481880498</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.22911947267179</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>18.62292977770699</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>13.07011034867244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.79170567942723</v>
+        <v>15.22577344918978</v>
       </c>
       <c r="C14">
-        <v>8.013031763557038</v>
+        <v>10.24603337450891</v>
       </c>
       <c r="D14">
-        <v>5.377622470611302</v>
+        <v>6.303788057627694</v>
       </c>
       <c r="E14">
-        <v>18.76137140155565</v>
+        <v>18.60052002112881</v>
       </c>
       <c r="F14">
-        <v>22.48957358726578</v>
+        <v>17.28603494436964</v>
       </c>
       <c r="G14">
-        <v>2.070710359597749</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>20.34306794294299</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.298504746201162</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.072648736550573</v>
       </c>
       <c r="K14">
-        <v>13.68805259366844</v>
+        <v>12.22147905033868</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.35742124634192</v>
+        <v>13.97235249566977</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.18910079831682</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>18.46492650572927</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>13.06370930970584</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.70805978806144</v>
+        <v>15.14750999604502</v>
       </c>
       <c r="C15">
-        <v>7.986074878313976</v>
+        <v>10.21616942256953</v>
       </c>
       <c r="D15">
-        <v>5.364564722673619</v>
+        <v>6.281083356947762</v>
       </c>
       <c r="E15">
-        <v>18.64710744257547</v>
+        <v>18.48738573012384</v>
       </c>
       <c r="F15">
-        <v>22.42460830233585</v>
+        <v>17.23918681042093</v>
       </c>
       <c r="G15">
-        <v>2.071349674863102</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>20.28555864261516</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.282605090547161</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.075129340523745</v>
       </c>
       <c r="K15">
-        <v>13.62440188384649</v>
+        <v>12.23025784311839</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.25723673175561</v>
+        <v>13.91401472968503</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.16496446064118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>18.36824996949447</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>13.054633553017</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.22089980827989</v>
+        <v>14.70492972750188</v>
       </c>
       <c r="C16">
-        <v>7.829997543691753</v>
+        <v>9.997980440698834</v>
       </c>
       <c r="D16">
-        <v>5.289015347646727</v>
+        <v>6.139740465465859</v>
       </c>
       <c r="E16">
-        <v>17.9841963504753</v>
+        <v>17.83584018178305</v>
       </c>
       <c r="F16">
-        <v>22.05681093971611</v>
+        <v>17.01921140444836</v>
       </c>
       <c r="G16">
-        <v>2.075033353243761</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>20.0424625351807</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.184252138668901</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.104154981354581</v>
       </c>
       <c r="K16">
-        <v>13.25433261395925</v>
+        <v>12.31678665114687</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.67483923787697</v>
+        <v>13.56537053621916</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.03233163219517</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>17.80146476896977</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>13.04004098242576</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.91503176983029</v>
+        <v>14.42655573326399</v>
       </c>
       <c r="C17">
-        <v>7.732838712226663</v>
+        <v>9.862477373335972</v>
       </c>
       <c r="D17">
-        <v>5.242036476100572</v>
+        <v>6.051403664369273</v>
       </c>
       <c r="E17">
-        <v>17.5701845241135</v>
+        <v>17.42847252687517</v>
       </c>
       <c r="F17">
-        <v>21.83521185437653</v>
+        <v>16.88687947903654</v>
       </c>
       <c r="G17">
-        <v>2.077311819830281</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>19.89828311821977</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.123584178381329</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.123193344863086</v>
       </c>
       <c r="K17">
-        <v>13.02256639374312</v>
+        <v>12.37170884028976</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.31010389083472</v>
+        <v>13.34710005328457</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.95594380854105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>17.44605474791388</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>13.03403201710653</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.73651512120638</v>
+        <v>14.26971494834036</v>
       </c>
       <c r="C18">
-        <v>7.676444047351298</v>
+        <v>9.764995766497053</v>
       </c>
       <c r="D18">
-        <v>5.214787964326475</v>
+        <v>5.996069878851936</v>
       </c>
       <c r="E18">
-        <v>17.329321401701</v>
+        <v>17.19360707193281</v>
       </c>
       <c r="F18">
-        <v>21.70924587348374</v>
+        <v>16.83058239904208</v>
       </c>
       <c r="G18">
-        <v>2.078629489495878</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>19.85054136335079</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.085089919945556</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.139964896698055</v>
       </c>
       <c r="K18">
-        <v>12.88751946728003</v>
+        <v>12.41753864416874</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.09755419993557</v>
+        <v>13.21601166440097</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.91379972507094</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>17.23699391809943</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>13.04539522146422</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.67562654972974</v>
+        <v>14.21171760724201</v>
       </c>
       <c r="C19">
-        <v>7.657262644335456</v>
+        <v>9.746469505158641</v>
       </c>
       <c r="D19">
-        <v>5.20552347175262</v>
+        <v>5.980261913999466</v>
       </c>
       <c r="E19">
-        <v>17.24729618947866</v>
+        <v>17.11183720113549</v>
       </c>
       <c r="F19">
-        <v>21.66685317229956</v>
+        <v>16.7971663910036</v>
       </c>
       <c r="G19">
-        <v>2.07907688677666</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>19.80896608849121</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.074629173586795</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.141567537812881</v>
       </c>
       <c r="K19">
-        <v>12.84149606357579</v>
+        <v>12.4226816916154</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.02511165921069</v>
+        <v>13.17438942211571</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.89983468458089</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>17.16709902079218</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>13.03880371364534</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.94785966209918</v>
+        <v>14.45689986785232</v>
       </c>
       <c r="C20">
-        <v>7.743234535993985</v>
+        <v>9.875488565327569</v>
       </c>
       <c r="D20">
-        <v>5.247061111573142</v>
+        <v>6.060562461206925</v>
       </c>
       <c r="E20">
-        <v>17.61453896706736</v>
+        <v>17.47230803378395</v>
       </c>
       <c r="F20">
-        <v>21.8586472737585</v>
+        <v>16.90233756581178</v>
       </c>
       <c r="G20">
-        <v>2.077068539245364</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>19.91605036186202</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.129778663440198</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.1215429806731</v>
       </c>
       <c r="K20">
-        <v>13.04741854556842</v>
+        <v>12.36686092584949</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.34921607507563</v>
+        <v>13.37019448096145</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.96388909072256</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>17.48404400800715</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>13.03564107857517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.83167833763559</v>
+        <v>15.25604355996439</v>
       </c>
       <c r="C21">
-        <v>8.025929845831039</v>
+        <v>10.2839968594931</v>
       </c>
       <c r="D21">
-        <v>5.383871113251568</v>
+        <v>6.319562415263229</v>
       </c>
       <c r="E21">
-        <v>18.81602206683014</v>
+        <v>18.65185106522884</v>
       </c>
       <c r="F21">
-        <v>22.52080535408509</v>
+        <v>17.2846694216517</v>
       </c>
       <c r="G21">
-        <v>2.070404133414554</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>20.32836504273885</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.309845256830001</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.064463319949301</v>
       </c>
       <c r="K21">
-        <v>13.71848089154614</v>
+        <v>12.19943526620935</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.40531690683357</v>
+        <v>14.00515637429977</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.20077664152349</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>18.51332016194208</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>13.05028273523372</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.38653131517395</v>
+        <v>15.76359800242093</v>
       </c>
       <c r="C22">
-        <v>8.205999178704623</v>
+        <v>10.51983574782744</v>
       </c>
       <c r="D22">
-        <v>5.471162841328474</v>
+        <v>6.478108448753865</v>
       </c>
       <c r="E22">
-        <v>19.57775201580552</v>
+        <v>19.40101730339523</v>
       </c>
       <c r="F22">
-        <v>22.96664831818581</v>
+        <v>17.56890095068013</v>
       </c>
       <c r="G22">
-        <v>2.066105686053872</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>20.66010901908211</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.42228931845036</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.038971053752245</v>
       </c>
       <c r="K22">
-        <v>14.14155262200895</v>
+        <v>12.11571373303518</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.0714721371237</v>
+        <v>14.40033340658285</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.37233737929503</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>19.15860965624515</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>13.08920777271266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.09246486279368</v>
+        <v>15.50203168518262</v>
       </c>
       <c r="C23">
-        <v>8.110327279889299</v>
+        <v>10.37025410801867</v>
       </c>
       <c r="D23">
-        <v>5.424772056154188</v>
+        <v>6.388952224398881</v>
       </c>
       <c r="E23">
-        <v>19.17330992631274</v>
+        <v>19.00622760303569</v>
       </c>
       <c r="F23">
-        <v>22.72750505663375</v>
+        <v>17.44093360951673</v>
       </c>
       <c r="G23">
-        <v>2.068394954963893</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>20.52503445934021</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.358936418374726</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.059424816116017</v>
       </c>
       <c r="K23">
-        <v>13.91716851030501</v>
+        <v>12.17827846495386</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.71810677223674</v>
+        <v>14.18572307813595</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.27920329886464</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>18.81425327139354</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>13.08586630505169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.93302648849778</v>
+        <v>14.45532402781358</v>
       </c>
       <c r="C24">
-        <v>7.738536254335836</v>
+        <v>9.829886948717148</v>
       </c>
       <c r="D24">
-        <v>5.24479021948965</v>
+        <v>6.048166684963747</v>
       </c>
       <c r="E24">
-        <v>17.59449518521359</v>
+        <v>17.45727072103576</v>
       </c>
       <c r="F24">
-        <v>21.84804765081164</v>
+        <v>16.93503553432405</v>
       </c>
       <c r="G24">
-        <v>2.077178502190127</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>19.97833728212683</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.120628942466161</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.133681633997497</v>
       </c>
       <c r="K24">
-        <v>13.03618849856211</v>
+        <v>12.39788981081722</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.33154236588246</v>
+        <v>13.35148455533829</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.96029151713</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>17.46313131960341</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>13.06402704246393</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.58326267131849</v>
+        <v>13.23151025319564</v>
       </c>
       <c r="C25">
-        <v>7.318072520031254</v>
+        <v>9.219962085583742</v>
       </c>
       <c r="D25">
-        <v>5.042023521035871</v>
+        <v>5.657181753153382</v>
       </c>
       <c r="E25">
-        <v>15.83966846579612</v>
+        <v>15.76167782305525</v>
       </c>
       <c r="F25">
-        <v>20.95658410415419</v>
+        <v>16.42960714216039</v>
       </c>
       <c r="G25">
-        <v>2.086929878409174</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>19.4627756547659</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.855964667837605</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.231000534968866</v>
       </c>
       <c r="K25">
-        <v>12.01943172912308</v>
+        <v>12.66061934299502</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.73001226272553</v>
+        <v>12.38970508560021</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.68430152085989</v>
+        <v>15.89628416359009</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>13.08181076371563</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_54/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.27075368865001</v>
+        <v>12.23552833666684</v>
       </c>
       <c r="C2">
-        <v>8.68188091804703</v>
+        <v>8.739919992049652</v>
       </c>
       <c r="D2">
-        <v>5.336085878380034</v>
+        <v>5.385511617100602</v>
       </c>
       <c r="E2">
-        <v>14.57734973908028</v>
+        <v>14.53896450606574</v>
       </c>
       <c r="F2">
-        <v>16.15699804038882</v>
+        <v>15.83662904698797</v>
       </c>
       <c r="G2">
-        <v>19.25803285472895</v>
+        <v>17.99348867867134</v>
       </c>
       <c r="I2">
-        <v>2.645695418360035</v>
+        <v>2.699917071560022</v>
       </c>
       <c r="J2">
-        <v>8.333783018658377</v>
+        <v>8.722048103957688</v>
       </c>
       <c r="K2">
-        <v>12.91837056863539</v>
+        <v>12.58795774818879</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.11445017883907</v>
       </c>
       <c r="M2">
-        <v>11.61589246032692</v>
+        <v>7.494991615686793</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.64032671220453</v>
+        <v>11.66636548499551</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>13.17241976506665</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>14.66892670169812</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>12.93034092365216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.55793671625978</v>
+        <v>11.55390250774238</v>
       </c>
       <c r="C3">
-        <v>8.340767381792446</v>
+        <v>8.306166522285258</v>
       </c>
       <c r="D3">
-        <v>5.114695186826352</v>
+        <v>5.145875175149139</v>
       </c>
       <c r="E3">
-        <v>13.73969671228784</v>
+        <v>13.70971412080305</v>
       </c>
       <c r="F3">
-        <v>15.95740470115312</v>
+        <v>15.67811017822057</v>
       </c>
       <c r="G3">
-        <v>19.09092767158098</v>
+        <v>17.91483428115453</v>
       </c>
       <c r="I3">
-        <v>2.502210510117205</v>
+        <v>2.572340911288295</v>
       </c>
       <c r="J3">
-        <v>8.401089317292547</v>
+        <v>8.763460222402175</v>
       </c>
       <c r="K3">
-        <v>13.07905088903457</v>
+        <v>12.76202608661931</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.29993996252457</v>
       </c>
       <c r="M3">
-        <v>11.06824147566748</v>
+        <v>7.597308920177606</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.73267147529839</v>
+        <v>11.10818107314667</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>13.225915840619</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.75714174717751</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>13.00725655379883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.09541841770921</v>
+        <v>11.11203524319869</v>
       </c>
       <c r="C4">
-        <v>8.126280446737145</v>
+        <v>8.032500638585402</v>
       </c>
       <c r="D4">
-        <v>4.973599826840253</v>
+        <v>4.993071280485331</v>
       </c>
       <c r="E4">
-        <v>13.21160828303772</v>
+        <v>13.18702969791148</v>
       </c>
       <c r="F4">
-        <v>15.84424222589121</v>
+        <v>15.58879519180595</v>
       </c>
       <c r="G4">
-        <v>19.00331500160511</v>
+        <v>17.88311399096672</v>
       </c>
       <c r="I4">
-        <v>2.534473283917606</v>
+        <v>2.49195471874087</v>
       </c>
       <c r="J4">
-        <v>8.445770782466051</v>
+        <v>8.790429564509832</v>
       </c>
       <c r="K4">
-        <v>13.18238671719158</v>
+        <v>12.87224153660793</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.41767316520966</v>
       </c>
       <c r="M4">
-        <v>10.71752748715625</v>
+        <v>7.680184960247651</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.14581784344668</v>
+        <v>10.75083637856549</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13.26637533961199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>13.1674622215692</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>13.06072210887602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.89821933645074</v>
+        <v>10.92369847834964</v>
       </c>
       <c r="C5">
-        <v>8.045033024352076</v>
+        <v>7.927091794937434</v>
       </c>
       <c r="D5">
-        <v>4.916394626645984</v>
+        <v>4.93097085318201</v>
       </c>
       <c r="E5">
-        <v>12.99210820404104</v>
+        <v>12.96981235636602</v>
       </c>
       <c r="F5">
-        <v>15.7935252170769</v>
+        <v>15.5475750904216</v>
       </c>
       <c r="G5">
-        <v>18.95912732757635</v>
+        <v>17.86203950075557</v>
       </c>
       <c r="I5">
-        <v>2.577375515556937</v>
+        <v>2.495466186342323</v>
       </c>
       <c r="J5">
-        <v>8.462953788124882</v>
+        <v>8.800002032458815</v>
       </c>
       <c r="K5">
-        <v>13.22104222292626</v>
+        <v>12.9135936731596</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.46227589059179</v>
       </c>
       <c r="M5">
-        <v>10.57264759675351</v>
+        <v>7.716738872213989</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.90004651356614</v>
+        <v>10.60321271449763</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13.27993908502279</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.9204599617368</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>13.0793814401533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.86200584484422</v>
+        <v>10.88905250553106</v>
       </c>
       <c r="C6">
-        <v>8.040516948110087</v>
+        <v>7.919129659103211</v>
       </c>
       <c r="D6">
-        <v>4.908716068134482</v>
+        <v>4.922466518538885</v>
       </c>
       <c r="E6">
-        <v>12.95414899353783</v>
+        <v>12.93226003991495</v>
       </c>
       <c r="F6">
-        <v>15.77674208135368</v>
+        <v>15.53252372048378</v>
       </c>
       <c r="G6">
-        <v>18.9371507133462</v>
+        <v>17.84395179067372</v>
       </c>
       <c r="I6">
-        <v>2.588637486531</v>
+        <v>2.506835110359934</v>
       </c>
       <c r="J6">
-        <v>8.463598956556092</v>
+        <v>8.799415642049304</v>
       </c>
       <c r="K6">
-        <v>13.22190970379374</v>
+        <v>12.91515496851753</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.46444666418168</v>
       </c>
       <c r="M6">
-        <v>10.55030301359616</v>
+        <v>7.720506538823925</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.85976468897627</v>
+        <v>10.58039581585917</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13.27647485955349</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.87995680104288</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>13.07690669465444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.08450089409213</v>
+        <v>11.10209029182189</v>
       </c>
       <c r="C7">
-        <v>8.149613652227462</v>
+        <v>8.053219240026863</v>
       </c>
       <c r="D7">
-        <v>4.977951291121097</v>
+        <v>5.000483019532596</v>
       </c>
       <c r="E7">
-        <v>13.20511992039002</v>
+        <v>13.18092051278861</v>
       </c>
       <c r="F7">
-        <v>15.82043084026385</v>
+        <v>15.55244636149294</v>
       </c>
       <c r="G7">
-        <v>18.96225016691923</v>
+        <v>17.91787093912489</v>
       </c>
       <c r="I7">
-        <v>2.545845582580543</v>
+        <v>2.494874773583059</v>
       </c>
       <c r="J7">
-        <v>8.439838945914072</v>
+        <v>8.753964752010713</v>
       </c>
       <c r="K7">
-        <v>13.16753805114666</v>
+        <v>12.8529284099145</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.39915095241042</v>
       </c>
       <c r="M7">
-        <v>10.72077629437251</v>
+        <v>7.670275619697703</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.14513956198592</v>
+        <v>10.7528866783493</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13.25064755118559</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>13.16619587594469</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>13.0366967513461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.01995498801123</v>
+        <v>11.99751586028458</v>
       </c>
       <c r="C8">
-        <v>8.596439969701894</v>
+        <v>8.612756236602008</v>
       </c>
       <c r="D8">
-        <v>5.267357312363037</v>
+        <v>5.320594604743584</v>
       </c>
       <c r="E8">
-        <v>14.28717272824962</v>
+        <v>14.25261387922749</v>
       </c>
       <c r="F8">
-        <v>16.05618874212934</v>
+        <v>15.70798120346072</v>
       </c>
       <c r="G8">
-        <v>19.14444612352744</v>
+        <v>18.16051485959598</v>
       </c>
       <c r="I8">
-        <v>2.599827129945678</v>
+        <v>2.65922144808088</v>
       </c>
       <c r="J8">
-        <v>8.348145982578387</v>
+        <v>8.628430945670958</v>
       </c>
       <c r="K8">
-        <v>12.95240255258311</v>
+        <v>12.61086401272063</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.14592252987314</v>
       </c>
       <c r="M8">
-        <v>11.43669966098457</v>
+        <v>7.50227509085409</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.33669719727603</v>
+        <v>11.48008272929195</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13.16825395590714</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>14.36223127274557</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>12.90602780932906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.66874965163932</v>
+        <v>13.57651254337522</v>
       </c>
       <c r="C9">
-        <v>9.389462374176761</v>
+        <v>9.618804073212964</v>
       </c>
       <c r="D9">
-        <v>5.783705995255895</v>
+        <v>5.881257273560245</v>
       </c>
       <c r="E9">
-        <v>16.29727124876675</v>
+        <v>16.25029554334068</v>
       </c>
       <c r="F9">
-        <v>16.6336184671024</v>
+        <v>16.16568855863025</v>
       </c>
       <c r="G9">
-        <v>19.69601799443919</v>
+        <v>18.56657237577353</v>
       </c>
       <c r="I9">
-        <v>2.941593221948336</v>
+        <v>2.962281878258245</v>
       </c>
       <c r="J9">
-        <v>8.207045223999371</v>
+        <v>8.513032531910733</v>
       </c>
       <c r="K9">
-        <v>12.59665220937803</v>
+        <v>12.2080354685512</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.71990054481581</v>
       </c>
       <c r="M9">
-        <v>12.71355189262223</v>
+        <v>7.365205607560283</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.43501438618012</v>
+        <v>12.78147097185451</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13.09886021014637</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>16.46886749167571</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>12.76180014913873</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.75393731537561</v>
+        <v>14.62017706736916</v>
       </c>
       <c r="C10">
-        <v>9.9555770820695</v>
+        <v>10.30990252127405</v>
       </c>
       <c r="D10">
-        <v>6.137713633142811</v>
+        <v>6.280476730108305</v>
       </c>
       <c r="E10">
-        <v>17.88882509384514</v>
+        <v>17.83111045618351</v>
       </c>
       <c r="F10">
-        <v>17.09250018946371</v>
+        <v>16.46137457584747</v>
       </c>
       <c r="G10">
-        <v>20.16210790028308</v>
+        <v>19.36597447216578</v>
       </c>
       <c r="I10">
-        <v>3.183279951040973</v>
+        <v>3.175920148060327</v>
       </c>
       <c r="J10">
-        <v>8.11886358425908</v>
+        <v>8.266409002283249</v>
       </c>
       <c r="K10">
-        <v>12.35332522125674</v>
+        <v>11.89256097386457</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.40131669339547</v>
       </c>
       <c r="M10">
-        <v>13.57802017629678</v>
+        <v>7.336480477116952</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.83622065162094</v>
+        <v>13.65740975991752</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13.08376349085098</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>17.87197426704435</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>12.63378842044177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.21085962412869</v>
+        <v>15.06537886951789</v>
       </c>
       <c r="C11">
-        <v>10.24025490766377</v>
+        <v>10.61836542235139</v>
       </c>
       <c r="D11">
-        <v>6.299437926874385</v>
+        <v>6.488949956123621</v>
       </c>
       <c r="E11">
-        <v>18.57892703400593</v>
+        <v>18.51894907417742</v>
       </c>
       <c r="F11">
-        <v>17.27713876595885</v>
+        <v>16.44795105368273</v>
       </c>
       <c r="G11">
-        <v>20.3321794497111</v>
+        <v>20.44636123341284</v>
       </c>
       <c r="I11">
-        <v>3.295445440062508</v>
+        <v>3.274246031638728</v>
       </c>
       <c r="J11">
-        <v>8.073138316815355</v>
+        <v>7.889316966085469</v>
       </c>
       <c r="K11">
-        <v>12.22320148149026</v>
+        <v>11.67754398404361</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.21632699221832</v>
       </c>
       <c r="M11">
-        <v>13.96120022224159</v>
+        <v>7.272337236635511</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.44646506089238</v>
+        <v>14.03704419124105</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13.0620138705125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>18.47849631935598</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>12.47012312869013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.3855741588259</v>
+        <v>15.23642162089129</v>
       </c>
       <c r="C12">
-        <v>10.32894058466168</v>
+        <v>10.71112225313279</v>
       </c>
       <c r="D12">
-        <v>6.355971005729458</v>
+        <v>6.566284313546647</v>
       </c>
       <c r="E12">
-        <v>18.83817306717572</v>
+        <v>18.77757747220932</v>
       </c>
       <c r="F12">
-        <v>17.36676934197184</v>
+        <v>16.44660329250114</v>
       </c>
       <c r="G12">
-        <v>20.43175261687234</v>
+        <v>20.98751099270552</v>
       </c>
       <c r="I12">
-        <v>3.335329839000022</v>
+        <v>3.307768372118367</v>
       </c>
       <c r="J12">
-        <v>8.061820334305663</v>
+        <v>7.734468060357662</v>
       </c>
       <c r="K12">
-        <v>12.18841166041301</v>
+        <v>11.60199929784154</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.15164231964111</v>
       </c>
       <c r="M12">
-        <v>14.10003105653127</v>
+        <v>7.255149449822845</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.67154592699985</v>
+        <v>14.17361115683149</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13.06895849337473</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>18.7016797531755</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>12.41073962389038</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.34919887358923</v>
+        <v>15.20077487280428</v>
       </c>
       <c r="C13">
-        <v>10.30628529428567</v>
+        <v>10.68759419574436</v>
       </c>
       <c r="D13">
-        <v>6.343088902547632</v>
+        <v>6.548782990834831</v>
       </c>
       <c r="E13">
-        <v>18.78294728508179</v>
+        <v>18.72246335851512</v>
       </c>
       <c r="F13">
-        <v>17.35103854893831</v>
+        <v>16.45103731990154</v>
       </c>
       <c r="G13">
-        <v>20.41663831301231</v>
+        <v>20.87298227040929</v>
       </c>
       <c r="I13">
-        <v>3.326234735053209</v>
+        <v>3.299856616593387</v>
       </c>
       <c r="J13">
-        <v>8.065299038166593</v>
+        <v>7.768881636294654</v>
       </c>
       <c r="K13">
-        <v>12.19859281873391</v>
+        <v>11.62092710750062</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.16708950457124</v>
       </c>
       <c r="M13">
-        <v>14.06949481880498</v>
+        <v>7.261370666536113</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.62292977770699</v>
+        <v>14.14360730324695</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13.07011034867244</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>18.65349779703587</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>12.42654495462624</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.22577344918978</v>
+        <v>15.0799631347716</v>
       </c>
       <c r="C14">
-        <v>10.24603337450891</v>
+        <v>10.62448320424</v>
       </c>
       <c r="D14">
-        <v>6.303788057627694</v>
+        <v>6.49494907722013</v>
       </c>
       <c r="E14">
-        <v>18.60052002112881</v>
+        <v>18.54048183231676</v>
       </c>
       <c r="F14">
-        <v>17.28603494436964</v>
+        <v>16.44962286035227</v>
       </c>
       <c r="G14">
-        <v>20.34306794294299</v>
+        <v>20.49163569992136</v>
       </c>
       <c r="I14">
-        <v>3.298504746201162</v>
+        <v>3.276701724827856</v>
       </c>
       <c r="J14">
-        <v>8.072648736550573</v>
+        <v>7.877096369340599</v>
       </c>
       <c r="K14">
-        <v>12.22147905033868</v>
+        <v>11.67246956706329</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.21166523348104</v>
       </c>
       <c r="M14">
-        <v>13.97235249566977</v>
+        <v>7.271992869377931</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.46492650572927</v>
+        <v>14.04803045507641</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13.06370930970584</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>18.49681317646649</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>12.46653373967518</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.14750999604502</v>
+        <v>15.00346140138289</v>
       </c>
       <c r="C15">
-        <v>10.21616942256953</v>
+        <v>10.5927081300056</v>
       </c>
       <c r="D15">
-        <v>6.281083356947762</v>
+        <v>6.463745567303114</v>
       </c>
       <c r="E15">
-        <v>18.48738573012384</v>
+        <v>18.427674827734</v>
       </c>
       <c r="F15">
-        <v>17.23918681042093</v>
+        <v>16.43993644489181</v>
       </c>
       <c r="G15">
-        <v>20.28555864261516</v>
+        <v>20.25826132754723</v>
       </c>
       <c r="I15">
-        <v>3.282605090547161</v>
+        <v>3.263980401050611</v>
       </c>
       <c r="J15">
-        <v>8.075129340523745</v>
+        <v>7.940327472041857</v>
       </c>
       <c r="K15">
-        <v>12.23025784311839</v>
+        <v>11.69850237473993</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.23577280947107</v>
       </c>
       <c r="M15">
-        <v>13.91401472968503</v>
+        <v>7.273402849817562</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.36824996949447</v>
+        <v>13.99052271445548</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13.054633553017</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>18.40087201504523</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>12.48461828938114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.70492972750188</v>
+        <v>14.57244171822102</v>
       </c>
       <c r="C16">
-        <v>9.997980440698834</v>
+        <v>10.35341955193664</v>
       </c>
       <c r="D16">
-        <v>6.139740465465859</v>
+        <v>6.279839964383934</v>
       </c>
       <c r="E16">
-        <v>17.83584018178305</v>
+        <v>17.77846343129096</v>
       </c>
       <c r="F16">
-        <v>17.01921140444836</v>
+        <v>16.4008198084186</v>
       </c>
       <c r="G16">
-        <v>20.0424625351807</v>
+        <v>19.19971902832573</v>
       </c>
       <c r="I16">
-        <v>3.184252138668901</v>
+        <v>3.180868699328243</v>
       </c>
       <c r="J16">
-        <v>8.104154981354581</v>
+        <v>8.273139426304867</v>
       </c>
       <c r="K16">
-        <v>12.31678665114687</v>
+        <v>11.86542755426031</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.38706471641391</v>
       </c>
       <c r="M16">
-        <v>13.56537053621916</v>
+        <v>7.3026381831086</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.80146476896977</v>
+        <v>13.64478147246718</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13.04004098242576</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>17.83732255569122</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>12.60012133946792</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.42655573326399</v>
+        <v>14.30268543619983</v>
       </c>
       <c r="C17">
-        <v>9.862477373335972</v>
+        <v>10.19776081330856</v>
       </c>
       <c r="D17">
-        <v>6.051403664369273</v>
+        <v>6.170820574441586</v>
       </c>
       <c r="E17">
-        <v>17.42847252687517</v>
+        <v>17.37304699770463</v>
       </c>
       <c r="F17">
-        <v>16.88687947903654</v>
+        <v>16.35278289865813</v>
       </c>
       <c r="G17">
-        <v>19.89828311821977</v>
+        <v>18.72056327346524</v>
       </c>
       <c r="I17">
-        <v>3.123584178381329</v>
+        <v>3.129074581093711</v>
       </c>
       <c r="J17">
-        <v>8.123193344863086</v>
+        <v>8.430617020463274</v>
       </c>
       <c r="K17">
-        <v>12.37170884028976</v>
+        <v>11.95747958903249</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.47500051561657</v>
       </c>
       <c r="M17">
-        <v>13.34710005328457</v>
+        <v>7.314711278688788</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.44605474791388</v>
+        <v>13.42653110774701</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13.03403201710653</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>17.48295730096186</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>12.65377162110701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.26971494834036</v>
+        <v>14.15122990175738</v>
       </c>
       <c r="C18">
-        <v>9.764995766497053</v>
+        <v>10.08496502671217</v>
       </c>
       <c r="D18">
-        <v>5.996069878851936</v>
+        <v>6.105579949014907</v>
       </c>
       <c r="E18">
-        <v>17.19360707193281</v>
+        <v>17.13945349391447</v>
       </c>
       <c r="F18">
-        <v>16.83058239904208</v>
+        <v>16.33489280784039</v>
       </c>
       <c r="G18">
-        <v>19.85054136335079</v>
+        <v>18.53815281001897</v>
       </c>
       <c r="I18">
-        <v>3.085089919945556</v>
+        <v>3.09437057304406</v>
       </c>
       <c r="J18">
-        <v>8.139964896698055</v>
+        <v>8.505685681312293</v>
       </c>
       <c r="K18">
-        <v>12.41753864416874</v>
+        <v>12.01910051214773</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.53195954070042</v>
       </c>
       <c r="M18">
-        <v>13.21601166440097</v>
+        <v>7.330916702594564</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.23699391809943</v>
+        <v>13.29481258878398</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13.04539522146422</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>17.27416623695196</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>12.69172378660891</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.21171760724201</v>
+        <v>14.09524259846222</v>
       </c>
       <c r="C19">
-        <v>9.746469505158641</v>
+        <v>10.06159597495775</v>
       </c>
       <c r="D19">
-        <v>5.980261913999466</v>
+        <v>6.086738311898929</v>
       </c>
       <c r="E19">
-        <v>17.11183720113549</v>
+        <v>17.05818383092376</v>
       </c>
       <c r="F19">
-        <v>16.7971663910036</v>
+        <v>16.31329527367597</v>
       </c>
       <c r="G19">
-        <v>19.80896608849121</v>
+        <v>18.4607693509323</v>
       </c>
       <c r="I19">
-        <v>3.074629173586795</v>
+        <v>3.086004364901711</v>
       </c>
       <c r="J19">
-        <v>8.141567537812881</v>
+        <v>8.523724043788196</v>
       </c>
       <c r="K19">
-        <v>12.4226816916154</v>
+        <v>12.0298749337825</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.54449603295446</v>
       </c>
       <c r="M19">
-        <v>13.17438942211571</v>
+        <v>7.327634130317434</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.16709902079218</v>
+        <v>13.25284367259705</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13.03880371364534</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>17.20428562438907</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>12.69345045510294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.45689986785232</v>
+        <v>14.33204571389814</v>
       </c>
       <c r="C20">
-        <v>9.875488565327569</v>
+        <v>10.21311474761765</v>
       </c>
       <c r="D20">
-        <v>6.060562461206925</v>
+        <v>6.181977942343392</v>
       </c>
       <c r="E20">
-        <v>17.47230803378395</v>
+        <v>17.41665107139872</v>
       </c>
       <c r="F20">
-        <v>16.90233756581178</v>
+        <v>16.36021645919888</v>
       </c>
       <c r="G20">
-        <v>19.91605036186202</v>
+        <v>18.76790783472519</v>
       </c>
       <c r="I20">
-        <v>3.129778663440198</v>
+        <v>3.134255179023477</v>
       </c>
       <c r="J20">
-        <v>8.1215429806731</v>
+        <v>8.416279004543068</v>
       </c>
       <c r="K20">
-        <v>12.36686092584949</v>
+        <v>11.94902080147676</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.46647597457876</v>
       </c>
       <c r="M20">
-        <v>13.37019448096145</v>
+        <v>7.314489922215397</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.48404400800715</v>
+        <v>13.44969370713429</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13.03564107857517</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>17.52087332654025</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>12.64971756158927</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.25604355996439</v>
+        <v>15.11162625000714</v>
       </c>
       <c r="C21">
-        <v>10.2839968594931</v>
+        <v>10.65309110829779</v>
       </c>
       <c r="D21">
-        <v>6.319562415263229</v>
+        <v>6.524559912318146</v>
       </c>
       <c r="E21">
-        <v>18.65185106522884</v>
+        <v>18.59262322189074</v>
       </c>
       <c r="F21">
-        <v>17.2846694216517</v>
+        <v>16.38635866978368</v>
       </c>
       <c r="G21">
-        <v>20.32836504273885</v>
+        <v>20.83530985578783</v>
       </c>
       <c r="I21">
-        <v>3.309845256830001</v>
+        <v>3.2867577101726</v>
       </c>
       <c r="J21">
-        <v>8.064463319949301</v>
+        <v>7.760444859130898</v>
       </c>
       <c r="K21">
-        <v>12.19943526620935</v>
+        <v>11.62556285768616</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.17935838313891</v>
       </c>
       <c r="M21">
-        <v>14.00515637429977</v>
+        <v>7.237989426022978</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.51332016194208</v>
+        <v>14.07741447093081</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13.05028273523372</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>18.54334877827863</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>12.40885550370034</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.76359800242093</v>
+        <v>15.60799485483235</v>
       </c>
       <c r="C22">
-        <v>10.51983574782744</v>
+        <v>10.90392821222115</v>
       </c>
       <c r="D22">
-        <v>6.478108448753865</v>
+        <v>6.739773978156668</v>
       </c>
       <c r="E22">
-        <v>19.40101730339523</v>
+        <v>19.33955821169882</v>
       </c>
       <c r="F22">
-        <v>17.56890095068013</v>
+        <v>16.42013362087134</v>
       </c>
       <c r="G22">
-        <v>20.66010901908211</v>
+        <v>22.36601543020752</v>
       </c>
       <c r="I22">
-        <v>3.42228931845036</v>
+        <v>3.380330382276853</v>
       </c>
       <c r="J22">
-        <v>8.038971053752245</v>
+        <v>7.392665940214725</v>
       </c>
       <c r="K22">
-        <v>12.11571373303518</v>
+        <v>11.42593326382916</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.00677378776031</v>
       </c>
       <c r="M22">
-        <v>14.40033340658285</v>
+        <v>7.210434829342886</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.15860965624515</v>
+        <v>14.46734561898087</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13.08920777271266</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>19.18371349304602</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>12.26264691299409</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.50203168518262</v>
+        <v>15.35066100857057</v>
       </c>
       <c r="C23">
-        <v>10.37025410801867</v>
+        <v>10.75326711461095</v>
       </c>
       <c r="D23">
-        <v>6.388952224398881</v>
+        <v>6.613548835163423</v>
       </c>
       <c r="E23">
-        <v>19.00622760303569</v>
+        <v>18.94527162697038</v>
       </c>
       <c r="F23">
-        <v>17.44093360951673</v>
+        <v>16.45711474253293</v>
       </c>
       <c r="G23">
-        <v>20.52503445934021</v>
+        <v>21.39367093329471</v>
       </c>
       <c r="I23">
-        <v>3.358936418374726</v>
+        <v>3.326396838478237</v>
       </c>
       <c r="J23">
-        <v>8.059424816116017</v>
+        <v>7.635623116034374</v>
       </c>
       <c r="K23">
-        <v>12.17827846495386</v>
+        <v>11.56184759081051</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.11539270613071</v>
       </c>
       <c r="M23">
-        <v>14.18572307813595</v>
+        <v>7.253028503818208</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.81425327139354</v>
+        <v>14.2576105903976</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13.08586630505169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>18.84304304980278</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>12.38062007597517</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.45532402781358</v>
+        <v>14.33066039396634</v>
       </c>
       <c r="C24">
-        <v>9.829886948717148</v>
+        <v>10.1642968183942</v>
       </c>
       <c r="D24">
-        <v>6.048166684963747</v>
+        <v>6.168708596970802</v>
       </c>
       <c r="E24">
-        <v>17.45727072103576</v>
+        <v>17.40162103527862</v>
       </c>
       <c r="F24">
-        <v>16.93503553432405</v>
+        <v>16.39539186616192</v>
       </c>
       <c r="G24">
-        <v>19.97833728212683</v>
+        <v>18.81655473109175</v>
       </c>
       <c r="I24">
-        <v>3.120628942466161</v>
+        <v>3.12338752235654</v>
       </c>
       <c r="J24">
-        <v>8.133681633997497</v>
+        <v>8.432794246205249</v>
       </c>
       <c r="K24">
-        <v>12.39788981081722</v>
+        <v>11.9788502766018</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.48761336725481</v>
       </c>
       <c r="M24">
-        <v>13.35148455533829</v>
+        <v>7.33820307708182</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.46313131960341</v>
+        <v>13.43100355301627</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13.06402704246393</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>17.50003863493375</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>12.67926764165204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.23151025319564</v>
+        <v>13.15640732152404</v>
       </c>
       <c r="C25">
-        <v>9.219962085583742</v>
+        <v>9.401298513379071</v>
       </c>
       <c r="D25">
-        <v>5.657181753153382</v>
+        <v>5.73915868613935</v>
       </c>
       <c r="E25">
-        <v>15.76167782305525</v>
+        <v>15.71239082333837</v>
       </c>
       <c r="F25">
-        <v>16.42960714216039</v>
+        <v>16.01404088591281</v>
       </c>
       <c r="G25">
-        <v>19.4627756547659</v>
+        <v>18.26466501708412</v>
       </c>
       <c r="I25">
-        <v>2.855964667837605</v>
+        <v>2.889118455896028</v>
       </c>
       <c r="J25">
-        <v>8.231000534968866</v>
+        <v>8.575016684330581</v>
       </c>
       <c r="K25">
-        <v>12.66061934299502</v>
+        <v>12.29584291581044</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.81825399896536</v>
       </c>
       <c r="M25">
-        <v>12.38970508560021</v>
+        <v>7.369265211346819</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.89628416359009</v>
+        <v>12.45252564618482</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13.08181076371563</v>
+        <v>15.92878412913872</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>12.78000840892966</v>
       </c>
     </row>
   </sheetData>
